--- a/Book1_proj.xlsx
+++ b/Book1_proj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bec\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\waterpip\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Year</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Rainfall</t>
   </si>
   <si>
-    <t>WP</t>
-  </si>
-  <si>
     <t>[kg/m3]</t>
   </si>
   <si>
@@ -50,24 +47,9 @@
     <t>WATER PRODUCTIVITY</t>
   </si>
   <si>
-    <t>Yield Gap</t>
-  </si>
-  <si>
     <t>ETHIOPIA</t>
   </si>
   <si>
-    <t>ETref</t>
-  </si>
-  <si>
-    <t>Attainable Yield</t>
-  </si>
-  <si>
-    <t>Crop Yield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Above Ground Biomass </t>
-  </si>
-  <si>
     <t>(WAPOR)</t>
   </si>
   <si>
@@ -77,12 +59,6 @@
     <t>Potential Water Savings</t>
   </si>
   <si>
-    <t>Harvest Index</t>
-  </si>
-  <si>
-    <t>Water Content</t>
-  </si>
-  <si>
     <t>[kg/ha]</t>
   </si>
   <si>
@@ -126,6 +102,27 @@
   </si>
   <si>
     <t>&gt; The histograms only show values for pixels in which the p-value is smaller than 0.1. Pixels for which the calculated trend is insignificant (p &gt; 0.1) appear as black on the map.</t>
+  </si>
+  <si>
+    <t>Attainable AGBP</t>
+  </si>
+  <si>
+    <t>AGBP Gap</t>
+  </si>
+  <si>
+    <t>Reference ET</t>
+  </si>
+  <si>
+    <t>Actual Evapo- transpiration (ET)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass Pro- duction (AGBP) </t>
+  </si>
+  <si>
+    <t>Water Pro- ductivity (WP)</t>
+  </si>
+  <si>
+    <t>AGBP</t>
   </si>
 </sst>
 </file>
@@ -246,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -263,52 +260,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -382,9 +339,6 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,9 +346,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -405,16 +356,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,6 +404,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,446 +691,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="M31" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="95.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="95.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-    </row>
-    <row r="3" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="I3" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="H5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7">
+        <v>2009</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="33">
+        <v>4</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="7">
+        <v>2010</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7">
+        <v>2011</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7">
+        <v>2012</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7">
+        <v>2013</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7">
+        <v>2015</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7">
+        <v>2016</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="13">
+        <v>2017</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="22" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q22" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="9" t="s">
+    </row>
+    <row r="23" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q23" s="42"/>
+    </row>
+    <row r="24" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q24" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="17:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q25" s="38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="15" t="s">
+    <row r="26" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q26" s="38"/>
+    </row>
+    <row r="27" spans="17:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="Q27" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q28" s="39"/>
+    </row>
+    <row r="29" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q29" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q30" s="39"/>
+    </row>
+    <row r="31" spans="17:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q31" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q33" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="17" t="s">
+    </row>
+    <row r="34" spans="17:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q34" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="18" t="s">
+    </row>
+    <row r="35" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q35" s="39"/>
+    </row>
+    <row r="36" spans="17:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q36" s="39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q38" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8">
-        <v>2009</v>
-      </c>
-      <c r="C6" s="26">
-        <v>1</v>
-      </c>
-      <c r="D6" s="27">
-        <v>2</v>
-      </c>
-      <c r="E6" s="39">
-        <v>3</v>
-      </c>
-      <c r="F6" s="40">
-        <v>4</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="8">
-        <v>2010</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8">
-        <v>2011</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8">
-        <v>2012</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8">
-        <v>2013</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="8">
-        <v>2014</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8">
-        <v>2015</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="8">
-        <v>2016</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="14">
-        <v>2017</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="22"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="35"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D17" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D18" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D19" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="R22" s="47" t="s">
+    </row>
+    <row r="39" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q39" s="41" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="R23" s="49"/>
-    </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="R24" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="4:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="R25" s="45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="R26" s="45"/>
-    </row>
-    <row r="27" spans="4:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="R27" s="46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="R28" s="46"/>
-    </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="R29" s="46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="R30" s="46"/>
-    </row>
-    <row r="31" spans="4:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="R31" s="46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R33" s="50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="18:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="R34" s="46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R35" s="46"/>
-    </row>
-    <row r="36" spans="18:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="R36" s="46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R38" s="48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R39" s="48" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.3125" right="0.33333333333333331" top="1.03125" bottom="1.9097222222222223" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
